--- a/options.xlsx
+++ b/options.xlsx
@@ -2630,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3005,7 +3005,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C49">
         <v>3</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C50">
         <v>4</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C51">
         <v>5</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C52">
         <v>6</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C53">
         <v>7</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C54">
         <v>8</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C55">
         <v>9</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C56">
         <v>10</v>
       </c>
@@ -3069,97 +3069,127 @@
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C63">
         <v>5</v>
       </c>
       <c r="D63" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C64">
         <v>6</v>
       </c>
       <c r="D64" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C65">
         <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>8</v>
       </c>
       <c r="D66" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>9</v>
       </c>
       <c r="D67" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>10</v>
       </c>
       <c r="D68" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C71" s="3" t="s">
         <v>254</v>
       </c>
@@ -3167,7 +3197,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C72" s="3" t="s">
         <v>255</v>
       </c>
@@ -3175,7 +3205,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C73" s="3" t="s">
         <v>120</v>
       </c>
@@ -3183,12 +3213,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D75" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C76" s="3" t="s">
         <v>107</v>
       </c>
@@ -3196,7 +3226,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C77" s="3" t="s">
         <v>108</v>
       </c>
@@ -3204,7 +3234,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C78" s="3" t="s">
         <v>109</v>
       </c>
@@ -3212,7 +3242,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C79" s="3" t="s">
         <v>110</v>
       </c>
@@ -3220,7 +3250,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C80" s="3" t="s">
         <v>111</v>
       </c>

--- a/options.xlsx
+++ b/options.xlsx
@@ -2630,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3005,7 +3005,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C49">
         <v>3</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C50">
         <v>4</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C51">
         <v>5</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C52">
         <v>6</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C53">
         <v>7</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C54">
         <v>8</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C55">
         <v>9</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C56">
         <v>10</v>
       </c>
@@ -3069,127 +3069,97 @@
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
         <v>240</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60" t="s">
         <v>241</v>
       </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61" t="s">
         <v>242</v>
       </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62" t="s">
         <v>243</v>
       </c>
-      <c r="E62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C63">
         <v>5</v>
       </c>
       <c r="D63" t="s">
         <v>244</v>
       </c>
-      <c r="E63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C64">
         <v>6</v>
       </c>
       <c r="D64" t="s">
         <v>245</v>
       </c>
-      <c r="E64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C65">
         <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>246</v>
       </c>
-      <c r="E65">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>8</v>
       </c>
       <c r="D66" t="s">
         <v>247</v>
       </c>
-      <c r="E66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>9</v>
       </c>
       <c r="D67" t="s">
         <v>248</v>
       </c>
-      <c r="E67">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>10</v>
       </c>
       <c r="D68" t="s">
         <v>249</v>
       </c>
-      <c r="E68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C71" s="3" t="s">
         <v>254</v>
       </c>
@@ -3197,7 +3167,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C72" s="3" t="s">
         <v>255</v>
       </c>
@@ -3205,7 +3175,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C73" s="3" t="s">
         <v>120</v>
       </c>
@@ -3213,12 +3183,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D75" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C76" s="3" t="s">
         <v>107</v>
       </c>
@@ -3226,7 +3196,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C77" s="3" t="s">
         <v>108</v>
       </c>
@@ -3234,7 +3204,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C78" s="3" t="s">
         <v>109</v>
       </c>
@@ -3242,7 +3212,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C79" s="3" t="s">
         <v>110</v>
       </c>
@@ -3250,7 +3220,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C80" s="3" t="s">
         <v>111</v>
       </c>
